--- a/CRM Lite/Excels/musteriDetay.xlsx
+++ b/CRM Lite/Excels/musteriDetay.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beycan.gozenoglu\Desktop\Etiya-Akademi\JIRA\CRM Lite\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beycan.gozenoglu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E05D43-808F-4096-947B-1E549A8A330E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7EAA5E-40B3-4B02-B198-0F6FA301C483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{DE65F1B9-5303-45F8-80F8-86AE9267FD00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE65F1B9-5303-45F8-80F8-86AE9267FD00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Order Number</t>
   </si>
   <si>
-    <t>Bigint</t>
-  </si>
-  <si>
     <t>Karakter Sınırı</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Varchar2(100</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -238,95 +238,127 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -337,16 +369,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
@@ -354,15 +383,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,7 +715,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F9" sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,174 +729,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="9"/>
+      <c r="B2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2">
         <v>100</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>17</v>
+      <c r="F6" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>16</v>
+      <c r="A7" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2">
         <v>100</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>17</v>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2">
         <v>100</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>17</v>
+      <c r="F8" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="15"/>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
